--- a/REPORTES/Avance de ejecución - Diciembre.xlsx
+++ b/REPORTES/Avance de ejecución - Diciembre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\REPORTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9FD103-6181-4BCD-A5E9-D7933DCAC806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DC4805-A134-4A8C-ACDA-EB6D01A7318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>Incidencias</t>
   </si>
@@ -132,12 +132,6 @@
     <t>CP / INCIDENCIAS / AUTOMATIZACION</t>
   </si>
   <si>
-    <t>Entregable 3</t>
-  </si>
-  <si>
-    <t>Entregable 2</t>
-  </si>
-  <si>
     <t>6 Cerrados, 1 Pendiente</t>
   </si>
   <si>
@@ -175,6 +169,46 @@
   </si>
   <si>
     <t>4 Cerrados, 4 Devueltos</t>
+  </si>
+  <si>
+    <t>Cerrados</t>
+  </si>
+  <si>
+    <t>Iteracion 3 - Entregable 2</t>
+  </si>
+  <si>
+    <t>Iteracion 3 - Entregable 3</t>
+  </si>
+  <si>
+    <t>Iteracion 2 - Entregable 2</t>
+  </si>
+  <si>
+    <t>Iteracion 2 - Entregable 3</t>
+  </si>
+  <si>
+    <t>ZEE / Automatización (Entregable 2)</t>
+  </si>
+  <si>
+    <t>vuce-control-acceso.side
+VUCE-ZEE.side
+vuce-zee-aforo.side
+vuce-zee-balanza-registro-pesaje.side
+vuce-zee-contrato-registro-inversion.side
+vuce-zee-ingresos-control-inicial.side
+vuce-zee-notificaciones.side
+vuce-zee-salida-control-registro-vehiculos-salida.side
+vuce-zee-tesoreria-registro-tipo-cambio.side</t>
+  </si>
+  <si>
+    <t>ZEE / INCIDENCIAS / AUTOMATIZACION</t>
+  </si>
+  <si>
+    <t>Iteracion 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 incidencias, relacionada a la automatización
+Se homologó las 2 incidencias
+Se Re-abriendo 2 incidencias </t>
   </si>
 </sst>
 </file>
@@ -669,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -752,39 +786,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,6 +823,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1176,31 +1213,31 @@
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="35" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4"/>
@@ -1208,8 +1245,8 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1219,8 +1256,8 @@
       <c r="E6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1232,13 +1269,13 @@
       <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="34">
         <v>21</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="35">
         <v>21</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="36">
         <v>7</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -1383,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="285">
@@ -1406,15 +1443,15 @@
         <v>11</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5">
       <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>25</v>
+      <c r="B15" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>11</v>
@@ -1422,22 +1459,22 @@
       <c r="D15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="44">
+      <c r="E15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="33">
         <v>7</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>26</v>
+      <c r="G15" s="30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5">
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>24</v>
+      <c r="B16" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>11</v>
@@ -1445,168 +1482,260 @@
       <c r="D16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="44">
+      <c r="E16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="33">
         <v>14</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>27</v>
+      <c r="G16" s="30" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="49">
+      <c r="C17" s="38">
         <v>38</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="31">
         <v>60</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="39">
         <v>20</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>32</v>
+      <c r="G17" s="30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="49">
+        <v>31</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="38">
         <v>8</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="31">
         <v>15</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="39">
         <v>5</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="49">
+        <v>31</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="38">
         <v>10</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="31">
         <v>15</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="39">
         <v>5</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="49">
+      <c r="C20" s="38">
         <v>10</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="31">
         <v>15</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="39">
         <v>5</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="38">
+        <v>10</v>
+      </c>
+      <c r="D21" s="31">
+        <v>15</v>
+      </c>
+      <c r="E21" s="39">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5">
+      <c r="A22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="43">
+        <v>8</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="49">
-        <v>10</v>
-      </c>
-      <c r="D21" s="42">
-        <v>15</v>
-      </c>
-      <c r="E21" s="50">
-        <v>5</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="29.25" thickBot="1">
-      <c r="A22" s="11" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="28.5">
+      <c r="A23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="33">
+        <v>1</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="54">
-        <v>8</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="21" thickBot="1">
-      <c r="C23" s="55">
-        <f>SUM(C7:C22)</f>
+    </row>
+    <row r="24" spans="1:7" ht="28.5">
+      <c r="A24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="33">
+        <v>3</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="128.25">
+      <c r="A25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>9</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43.5" thickBot="1">
+      <c r="A26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="33">
+        <v>6</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21" thickBot="1">
+      <c r="C27" s="44">
+        <f>SUM(C7:C26)</f>
         <v>136</v>
       </c>
-      <c r="D23" s="56">
-        <f>SUM(D7:D22)</f>
-        <v>182</v>
-      </c>
-      <c r="E23" s="57">
-        <f>SUM(E7:E22)</f>
+      <c r="D27" s="45">
+        <f>SUM(D7:D26)</f>
+        <v>191</v>
+      </c>
+      <c r="E27" s="46">
+        <f>SUM(E7:E26)</f>
         <v>54</v>
       </c>
-      <c r="F23" s="57">
-        <f>SUM(F15:F22)</f>
-        <v>29</v>
+      <c r="F27" s="46">
+        <f>SUM(F15:F26)</f>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
